--- a/data/pca/factorExposure/factorExposure_2009-10-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007890985543567229</v>
+        <v>-0.01647506725471031</v>
       </c>
       <c r="C2">
-        <v>-0.001630532108873917</v>
+        <v>0.0008800470871153757</v>
       </c>
       <c r="D2">
-        <v>0.009047471431736752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008779207100826452</v>
+      </c>
+      <c r="E2">
+        <v>-0.001320524464642444</v>
+      </c>
+      <c r="F2">
+        <v>-0.01231368486412785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1092966010513173</v>
+        <v>-0.09356528953929505</v>
       </c>
       <c r="C4">
-        <v>-0.00127349386226489</v>
+        <v>0.01469992654425455</v>
       </c>
       <c r="D4">
-        <v>0.04858746642913564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08501217267720641</v>
+      </c>
+      <c r="E4">
+        <v>-0.02864489347099268</v>
+      </c>
+      <c r="F4">
+        <v>0.03178166455652637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1399180220075062</v>
+        <v>-0.1590182224754433</v>
       </c>
       <c r="C6">
-        <v>-0.005259328744329565</v>
+        <v>0.02582348773533456</v>
       </c>
       <c r="D6">
-        <v>-0.0382609982709858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02232811551450033</v>
+      </c>
+      <c r="E6">
+        <v>-0.01153214616364683</v>
+      </c>
+      <c r="F6">
+        <v>0.04592634305208978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07642134321345649</v>
+        <v>-0.06299991997424265</v>
       </c>
       <c r="C7">
-        <v>0.0112514733935727</v>
+        <v>-0.001826828091857085</v>
       </c>
       <c r="D7">
-        <v>0.02730938239816613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05294247803056103</v>
+      </c>
+      <c r="E7">
+        <v>-0.009132235037237665</v>
+      </c>
+      <c r="F7">
+        <v>0.04759463503568091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06606829222332419</v>
+        <v>-0.05701139811339571</v>
       </c>
       <c r="C8">
-        <v>0.0206362953375085</v>
+        <v>-0.01364168900061549</v>
       </c>
       <c r="D8">
-        <v>-0.005810927461002844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03322264327011621</v>
+      </c>
+      <c r="E8">
+        <v>-0.01731608993352994</v>
+      </c>
+      <c r="F8">
+        <v>-0.02714739370333602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09156768877529685</v>
+        <v>-0.07086798899138781</v>
       </c>
       <c r="C9">
-        <v>-0.001602910244925706</v>
+        <v>0.0103077713435788</v>
       </c>
       <c r="D9">
-        <v>0.04463250823519568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08699704361368149</v>
+      </c>
+      <c r="E9">
+        <v>-0.02276745008985529</v>
+      </c>
+      <c r="F9">
+        <v>0.04740985434825892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05083172713780534</v>
+        <v>-0.09346905171300246</v>
       </c>
       <c r="C10">
-        <v>-0.001843748222301275</v>
+        <v>0.02098548938106105</v>
       </c>
       <c r="D10">
-        <v>-0.1309085919293866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1670721603695118</v>
+      </c>
+      <c r="E10">
+        <v>0.03575072196803503</v>
+      </c>
+      <c r="F10">
+        <v>-0.05422935406848629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.10078557652975</v>
+        <v>-0.08783489041215091</v>
       </c>
       <c r="C11">
-        <v>-0.0009724325031373727</v>
+        <v>0.01029991616585396</v>
       </c>
       <c r="D11">
-        <v>0.0751934254794883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1169183059620117</v>
+      </c>
+      <c r="E11">
+        <v>-0.04592112866599057</v>
+      </c>
+      <c r="F11">
+        <v>0.02203635955527014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1069765367903848</v>
+        <v>-0.09153546316823749</v>
       </c>
       <c r="C12">
-        <v>0.001650300952616584</v>
+        <v>0.007410242515212041</v>
       </c>
       <c r="D12">
-        <v>0.07834400128633254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1325603125400485</v>
+      </c>
+      <c r="E12">
+        <v>-0.04776389299662072</v>
+      </c>
+      <c r="F12">
+        <v>0.02791646369417863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04542304733400709</v>
+        <v>-0.04177158804261989</v>
       </c>
       <c r="C13">
-        <v>0.0008601034750641208</v>
+        <v>0.002738631631380096</v>
       </c>
       <c r="D13">
-        <v>0.02761191738716424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05352758807715584</v>
+      </c>
+      <c r="E13">
+        <v>0.008211464327525326</v>
+      </c>
+      <c r="F13">
+        <v>0.001976564359390367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02256534851134966</v>
+        <v>-0.02390269167512335</v>
       </c>
       <c r="C14">
-        <v>-0.01122193580078907</v>
+        <v>0.01394648193720989</v>
       </c>
       <c r="D14">
-        <v>0.02003241808769176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0326579238432589</v>
+      </c>
+      <c r="E14">
+        <v>-0.01699153860136697</v>
+      </c>
+      <c r="F14">
+        <v>0.01281727820463493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04243236094236932</v>
+        <v>-0.03278400095556792</v>
       </c>
       <c r="C15">
-        <v>-0.0009935260738560877</v>
+        <v>0.004600724963654193</v>
       </c>
       <c r="D15">
-        <v>0.0112817098934958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04528900527533797</v>
+      </c>
+      <c r="E15">
+        <v>-0.005523815449755371</v>
+      </c>
+      <c r="F15">
+        <v>0.02330187112777137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08825577930666642</v>
+        <v>-0.07392951851893248</v>
       </c>
       <c r="C16">
-        <v>0.006461489316702662</v>
+        <v>0.0008645076302841601</v>
       </c>
       <c r="D16">
-        <v>0.07185167355857908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1277102766516562</v>
+      </c>
+      <c r="E16">
+        <v>-0.06187686284166927</v>
+      </c>
+      <c r="F16">
+        <v>0.02635214057425049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0003548953298242418</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-4.540420918949907e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006499297272446573</v>
+      </c>
+      <c r="E17">
+        <v>0.0003467832928480591</v>
+      </c>
+      <c r="F17">
+        <v>-0.000452329214937734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.03448385688184705</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003187271717937062</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01634138199754803</v>
+      </c>
+      <c r="E18">
+        <v>0.007376682185876992</v>
+      </c>
+      <c r="F18">
+        <v>-0.007925905279527506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06490554075200962</v>
+        <v>-0.06130447488399505</v>
       </c>
       <c r="C20">
-        <v>0.003524428577103012</v>
+        <v>-0.0001507288670606692</v>
       </c>
       <c r="D20">
-        <v>0.02149526513820009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0775236618793796</v>
+      </c>
+      <c r="E20">
+        <v>-0.05574944820119929</v>
+      </c>
+      <c r="F20">
+        <v>0.02394489941538179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04074342330042518</v>
+        <v>-0.0408286249291351</v>
       </c>
       <c r="C21">
-        <v>-0.004476207230130026</v>
+        <v>0.006597623889660418</v>
       </c>
       <c r="D21">
-        <v>0.009780780822825141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03739385526202715</v>
+      </c>
+      <c r="E21">
+        <v>0.005365829899132707</v>
+      </c>
+      <c r="F21">
+        <v>-0.0249951073735767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0227294490880336</v>
+        <v>-0.04321554353029008</v>
       </c>
       <c r="C22">
-        <v>0.001290180670756076</v>
+        <v>0.0007457939020715379</v>
       </c>
       <c r="D22">
-        <v>-0.02105682163501956</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006603372848541712</v>
+      </c>
+      <c r="E22">
+        <v>-0.03291224383902077</v>
+      </c>
+      <c r="F22">
+        <v>-0.04023274845407235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0226693615232711</v>
+        <v>-0.04319161236864934</v>
       </c>
       <c r="C23">
-        <v>0.001288353294619376</v>
+        <v>0.0007376046730923174</v>
       </c>
       <c r="D23">
-        <v>-0.02106193444170569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006619258794838468</v>
+      </c>
+      <c r="E23">
+        <v>-0.03309682149743122</v>
+      </c>
+      <c r="F23">
+        <v>-0.04019620851485588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0961094281820092</v>
+        <v>-0.07979707667582832</v>
       </c>
       <c r="C24">
-        <v>0.00733304398129258</v>
+        <v>0.001495233076619539</v>
       </c>
       <c r="D24">
-        <v>0.08034392883409647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1220225556995618</v>
+      </c>
+      <c r="E24">
+        <v>-0.04895574581991933</v>
+      </c>
+      <c r="F24">
+        <v>0.0272349706217275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09818585289361596</v>
+        <v>-0.08472865405514034</v>
       </c>
       <c r="C25">
-        <v>0.004571801951147954</v>
+        <v>0.004123502285227465</v>
       </c>
       <c r="D25">
-        <v>0.08057907458190854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1097004574600846</v>
+      </c>
+      <c r="E25">
+        <v>-0.03201949045446741</v>
+      </c>
+      <c r="F25">
+        <v>0.02709938504946793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05312996309055956</v>
+        <v>-0.05797235497851638</v>
       </c>
       <c r="C26">
-        <v>-0.01058887849232815</v>
+        <v>0.01389298223521958</v>
       </c>
       <c r="D26">
-        <v>0.001403562985146779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04118946449007205</v>
+      </c>
+      <c r="E26">
+        <v>-0.02769371701020813</v>
+      </c>
+      <c r="F26">
+        <v>-0.006417704851651746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09631552372584504</v>
+        <v>-0.1409705476954271</v>
       </c>
       <c r="C28">
-        <v>0.009049348655324699</v>
+        <v>0.02121879703775602</v>
       </c>
       <c r="D28">
-        <v>-0.2489447429203167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2609939140461161</v>
+      </c>
+      <c r="E28">
+        <v>0.06828307631137305</v>
+      </c>
+      <c r="F28">
+        <v>0.01076195755948019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0255129094628187</v>
+        <v>-0.02872998913974112</v>
       </c>
       <c r="C29">
-        <v>-0.006442166673745586</v>
+        <v>0.008826296607966773</v>
       </c>
       <c r="D29">
-        <v>0.01055446890233356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03091731039691722</v>
+      </c>
+      <c r="E29">
+        <v>-0.0113589841893903</v>
+      </c>
+      <c r="F29">
+        <v>-0.01333106783679606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.103208823559152</v>
+        <v>-0.05967484266758153</v>
       </c>
       <c r="C30">
-        <v>0.01005222414252563</v>
+        <v>0.002774129443875092</v>
       </c>
       <c r="D30">
-        <v>0.04220733387580736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08922036407977159</v>
+      </c>
+      <c r="E30">
+        <v>-0.01940671676781894</v>
+      </c>
+      <c r="F30">
+        <v>0.07990946030246421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03522386798886828</v>
+        <v>-0.05040603972961134</v>
       </c>
       <c r="C31">
-        <v>-0.01178143055299714</v>
+        <v>0.01517824905623886</v>
       </c>
       <c r="D31">
-        <v>0.01439477898412207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02473870531408249</v>
+      </c>
+      <c r="E31">
+        <v>-0.02761799445755246</v>
+      </c>
+      <c r="F31">
+        <v>-0.002553927113865589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04866247073747017</v>
+        <v>-0.05078029578738779</v>
       </c>
       <c r="C32">
-        <v>0.006740065740168684</v>
+        <v>-0.001862312671761086</v>
       </c>
       <c r="D32">
-        <v>0.009327732182581846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03509132544571764</v>
+      </c>
+      <c r="E32">
+        <v>-0.0321308763363234</v>
+      </c>
+      <c r="F32">
+        <v>0.003758528355731334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.105348911679226</v>
+        <v>-0.08950300366013152</v>
       </c>
       <c r="C33">
-        <v>0.003868268481063242</v>
+        <v>0.007068436140533501</v>
       </c>
       <c r="D33">
-        <v>0.05006439853532862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.100064945868846</v>
+      </c>
+      <c r="E33">
+        <v>-0.04368098599154811</v>
+      </c>
+      <c r="F33">
+        <v>0.03588712242211525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08915104802038092</v>
+        <v>-0.06747699523585067</v>
       </c>
       <c r="C34">
-        <v>-0.0007321446780740341</v>
+        <v>0.009925281704165094</v>
       </c>
       <c r="D34">
-        <v>0.07164390704513472</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.109061341156206</v>
+      </c>
+      <c r="E34">
+        <v>-0.03477319063764966</v>
+      </c>
+      <c r="F34">
+        <v>0.03341836497142649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02123026646464955</v>
+        <v>-0.02473975795554194</v>
       </c>
       <c r="C35">
-        <v>0.001127193748350749</v>
+        <v>0.00240106428251079</v>
       </c>
       <c r="D35">
-        <v>0.00368411752599091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01147009668145905</v>
+      </c>
+      <c r="E35">
+        <v>-0.01167014459448504</v>
+      </c>
+      <c r="F35">
+        <v>0.0005636771513121396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01413899941195305</v>
+        <v>-0.02749259866716593</v>
       </c>
       <c r="C36">
-        <v>-0.008200845552209547</v>
+        <v>0.006733876493213585</v>
       </c>
       <c r="D36">
-        <v>0.02742270407446567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0396662257535175</v>
+      </c>
+      <c r="E36">
+        <v>-0.01617997867263499</v>
+      </c>
+      <c r="F36">
+        <v>0.0156276773789924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001310283708917138</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0004391597064956767</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002227435268601397</v>
+      </c>
+      <c r="E37">
+        <v>0.001839063093243106</v>
+      </c>
+      <c r="F37">
+        <v>0.0002511405548493115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0003613160225572979</v>
+        <v>-0.0002866244156219706</v>
       </c>
       <c r="C38">
-        <v>2.215600348041447e-05</v>
+        <v>6.691956335864268e-06</v>
       </c>
       <c r="D38">
-        <v>0.0001395207372729002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>4.755062599049682e-05</v>
+      </c>
+      <c r="E38">
+        <v>0.0003866277442541152</v>
+      </c>
+      <c r="F38">
+        <v>0.0003284101983620831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1357042081320446</v>
+        <v>-0.1047936801106939</v>
       </c>
       <c r="C39">
-        <v>-0.0006399080258591514</v>
+        <v>0.01545112579395013</v>
       </c>
       <c r="D39">
-        <v>0.1158156373924331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1548280657330895</v>
+      </c>
+      <c r="E39">
+        <v>-0.05906306894734934</v>
+      </c>
+      <c r="F39">
+        <v>0.02967030309545678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02689067739858723</v>
+        <v>-0.04243859707465608</v>
       </c>
       <c r="C40">
-        <v>-0.005542539528246052</v>
+        <v>0.006713453153515564</v>
       </c>
       <c r="D40">
-        <v>-0.01212053375977572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03188551581615513</v>
+      </c>
+      <c r="E40">
+        <v>-0.00261727853627075</v>
+      </c>
+      <c r="F40">
+        <v>-0.01586818822995158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0192020207343826</v>
+        <v>-0.02748294470751639</v>
       </c>
       <c r="C41">
-        <v>-0.004927786475613002</v>
+        <v>0.006708102077276925</v>
       </c>
       <c r="D41">
-        <v>-0.002605021609110844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01051546317674572</v>
+      </c>
+      <c r="E41">
+        <v>-0.012282800454635</v>
+      </c>
+      <c r="F41">
+        <v>-0.007308951235847671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01836506981347223</v>
+        <v>-0.04044707697758505</v>
       </c>
       <c r="C43">
-        <v>-0.006925296320691845</v>
+        <v>0.006895062126125264</v>
       </c>
       <c r="D43">
-        <v>0.008182802189136706</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01926270158023529</v>
+      </c>
+      <c r="E43">
+        <v>-0.02461911485612534</v>
+      </c>
+      <c r="F43">
+        <v>-0.01404953074975066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1078964412737205</v>
+        <v>-0.0802295888615409</v>
       </c>
       <c r="C44">
-        <v>-0.008314824940924996</v>
+        <v>0.01942615992368371</v>
       </c>
       <c r="D44">
-        <v>0.04171839404176111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09788693710045535</v>
+      </c>
+      <c r="E44">
+        <v>-0.06276410297843378</v>
+      </c>
+      <c r="F44">
+        <v>0.1558700873615123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004256902576755822</v>
+        <v>-0.02379046183837899</v>
       </c>
       <c r="C46">
-        <v>-0.004495114838364529</v>
+        <v>0.003650821064204012</v>
       </c>
       <c r="D46">
-        <v>-0.00141347074972767</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01312967563157659</v>
+      </c>
+      <c r="E46">
+        <v>-0.02238596565801231</v>
+      </c>
+      <c r="F46">
+        <v>-0.007361189875519737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04313775317411256</v>
+        <v>-0.05209620985406877</v>
       </c>
       <c r="C47">
-        <v>0.000874205380833811</v>
+        <v>0.00322314877252595</v>
       </c>
       <c r="D47">
-        <v>-0.02608178467160604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01413510868925094</v>
+      </c>
+      <c r="E47">
+        <v>-0.02358851391419239</v>
+      </c>
+      <c r="F47">
+        <v>-0.03285899674819597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05356785244443458</v>
+        <v>-0.0499504049771612</v>
       </c>
       <c r="C48">
-        <v>0.003250860608862679</v>
+        <v>0.002081098087470252</v>
       </c>
       <c r="D48">
-        <v>0.02602389917357621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04999279147484254</v>
+      </c>
+      <c r="E48">
+        <v>0.005854516506045394</v>
+      </c>
+      <c r="F48">
+        <v>0.009348218634574882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2241205554997406</v>
+        <v>-0.2011439249980307</v>
       </c>
       <c r="C49">
-        <v>0.01771887592330734</v>
+        <v>0.01889347547031341</v>
       </c>
       <c r="D49">
-        <v>-0.03857626500909135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00664894301723565</v>
+      </c>
+      <c r="E49">
+        <v>-0.03207283211301765</v>
+      </c>
+      <c r="F49">
+        <v>0.03618056880140645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.039912533583519</v>
+        <v>-0.0505552503250962</v>
       </c>
       <c r="C50">
-        <v>-0.007084163951263644</v>
+        <v>0.01093052833611781</v>
       </c>
       <c r="D50">
-        <v>0.007838594227550351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02400796467630562</v>
+      </c>
+      <c r="E50">
+        <v>-0.02961449788550711</v>
+      </c>
+      <c r="F50">
+        <v>0.009092296012338005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0007519621921858548</v>
+        <v>-0.0003912651629073636</v>
       </c>
       <c r="C51">
-        <v>2.933692485820711e-05</v>
+        <v>0.0001164153183232956</v>
       </c>
       <c r="D51">
-        <v>-0.0009844476959624256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0002245689879819048</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001960068381643755</v>
+      </c>
+      <c r="F51">
+        <v>0.000550448574150855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1603152218506848</v>
+        <v>-0.1464052468873689</v>
       </c>
       <c r="C52">
-        <v>0.009740618395948655</v>
+        <v>0.0161049126539125</v>
       </c>
       <c r="D52">
-        <v>0.02909622324179222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04358316693861453</v>
+      </c>
+      <c r="E52">
+        <v>-0.01976808697253899</v>
+      </c>
+      <c r="F52">
+        <v>0.04209185495918211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1751024427053937</v>
+        <v>-0.1711216034352894</v>
       </c>
       <c r="C53">
-        <v>0.01154164976948542</v>
+        <v>0.01908573204766667</v>
       </c>
       <c r="D53">
-        <v>-0.007202972108590559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005710364222599291</v>
+      </c>
+      <c r="E53">
+        <v>-0.03082189101301834</v>
+      </c>
+      <c r="F53">
+        <v>0.0719620178294892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02768475751669097</v>
+        <v>-0.02161389665714507</v>
       </c>
       <c r="C54">
-        <v>-0.007940580070325951</v>
+        <v>0.01185701779122982</v>
       </c>
       <c r="D54">
-        <v>0.01101178647723074</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03417604638994657</v>
+      </c>
+      <c r="E54">
+        <v>-0.01748721496633277</v>
+      </c>
+      <c r="F54">
+        <v>-0.004309492210046297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1065975620307675</v>
+        <v>-0.1140273171053231</v>
       </c>
       <c r="C55">
-        <v>0.001895068872650613</v>
+        <v>0.01669035053810915</v>
       </c>
       <c r="D55">
-        <v>-0.008783310880993964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008524692812417372</v>
+      </c>
+      <c r="E55">
+        <v>-0.02702869064867846</v>
+      </c>
+      <c r="F55">
+        <v>0.04688418735076383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1739891379420538</v>
+        <v>-0.176365532130191</v>
       </c>
       <c r="C56">
-        <v>0.01375443880540042</v>
+        <v>0.01682929760610649</v>
       </c>
       <c r="D56">
-        <v>-0.02105416238580717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006676129978372326</v>
+      </c>
+      <c r="E56">
+        <v>-0.03513379513480624</v>
+      </c>
+      <c r="F56">
+        <v>0.05022868725017805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03657444063238775</v>
+        <v>-0.04522233374397994</v>
       </c>
       <c r="C58">
-        <v>-0.001812327068572791</v>
+        <v>-0.000548501324300396</v>
       </c>
       <c r="D58">
-        <v>0.03912707321832189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07112256360621416</v>
+      </c>
+      <c r="E58">
+        <v>-0.0282893201140067</v>
+      </c>
+      <c r="F58">
+        <v>-0.03813994194106343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1230034097396706</v>
+        <v>-0.1682302751063739</v>
       </c>
       <c r="C59">
-        <v>0.01107272295273873</v>
+        <v>0.02162261741529417</v>
       </c>
       <c r="D59">
-        <v>-0.2208166669896946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2173964800871271</v>
+      </c>
+      <c r="E59">
+        <v>0.04636675431430669</v>
+      </c>
+      <c r="F59">
+        <v>-0.03546522442028499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.263553521988924</v>
+        <v>-0.2318425921294399</v>
       </c>
       <c r="C60">
-        <v>0.04503262962525544</v>
+        <v>-0.002758030009331378</v>
       </c>
       <c r="D60">
-        <v>0.02197142160278642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04193163829859848</v>
+      </c>
+      <c r="E60">
+        <v>-0.01195433794310145</v>
+      </c>
+      <c r="F60">
+        <v>-0.006845738127452885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1106320567307983</v>
+        <v>-0.08083850875038301</v>
       </c>
       <c r="C61">
-        <v>0.001780598668244188</v>
+        <v>0.01125997391995759</v>
       </c>
       <c r="D61">
-        <v>0.07464126728018913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1178624610827438</v>
+      </c>
+      <c r="E61">
+        <v>-0.03875361781802287</v>
+      </c>
+      <c r="F61">
+        <v>0.01260557392425131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1695690028097356</v>
+        <v>-0.1693660415212754</v>
       </c>
       <c r="C62">
-        <v>0.009819396403834982</v>
+        <v>0.0200994831133844</v>
       </c>
       <c r="D62">
-        <v>-0.01562933420332074</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006036105085458853</v>
+      </c>
+      <c r="E62">
+        <v>-0.03369425609872264</v>
+      </c>
+      <c r="F62">
+        <v>0.03375299088246443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0467173784919752</v>
+        <v>-0.04575790031255415</v>
       </c>
       <c r="C63">
-        <v>0.001769134298762851</v>
+        <v>0.00165832209698156</v>
       </c>
       <c r="D63">
-        <v>0.03507278347390014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05886026684301079</v>
+      </c>
+      <c r="E63">
+        <v>-0.02225347567861547</v>
+      </c>
+      <c r="F63">
+        <v>0.004466021574429502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09746576734944885</v>
+        <v>-0.1097783302767545</v>
       </c>
       <c r="C64">
-        <v>-0.0005797655813207782</v>
+        <v>0.01081873821385262</v>
       </c>
       <c r="D64">
-        <v>0.004960234184163296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04452216666494545</v>
+      </c>
+      <c r="E64">
+        <v>-0.02418042559636616</v>
+      </c>
+      <c r="F64">
+        <v>0.02446326690695701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1290039892067479</v>
+        <v>-0.1495828618407742</v>
       </c>
       <c r="C65">
-        <v>-0.01167433647860805</v>
+        <v>0.03315286810942114</v>
       </c>
       <c r="D65">
-        <v>-0.02959937122151904</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04233166985065424</v>
+      </c>
+      <c r="E65">
+        <v>-0.005709788100904113</v>
+      </c>
+      <c r="F65">
+        <v>0.03964815931058482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1639645933196816</v>
+        <v>-0.1240524666063546</v>
       </c>
       <c r="C66">
-        <v>0.005385879123027851</v>
+        <v>0.01343091523232903</v>
       </c>
       <c r="D66">
-        <v>0.1031709516616337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.143104361987785</v>
+      </c>
+      <c r="E66">
+        <v>-0.06556515452286263</v>
+      </c>
+      <c r="F66">
+        <v>0.03300169617403356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06727877211859369</v>
+        <v>-0.05880388305543857</v>
       </c>
       <c r="C67">
-        <v>0.005132834494104639</v>
+        <v>0.002922865625622403</v>
       </c>
       <c r="D67">
-        <v>0.02185935497542104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05608022068928145</v>
+      </c>
+      <c r="E67">
+        <v>-0.01665277456249323</v>
+      </c>
+      <c r="F67">
+        <v>-0.03134223241981455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07986981318633897</v>
+        <v>-0.1166163247984405</v>
       </c>
       <c r="C68">
-        <v>-0.00410228874468804</v>
+        <v>0.03219051771321204</v>
       </c>
       <c r="D68">
-        <v>-0.2294825076157386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2599887577309444</v>
+      </c>
+      <c r="E68">
+        <v>0.08691496424107094</v>
+      </c>
+      <c r="F68">
+        <v>0.00557535595080513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03603130201487073</v>
+        <v>-0.03962566490193503</v>
       </c>
       <c r="C69">
-        <v>0.003658895249195453</v>
+        <v>0.001198982277669473</v>
       </c>
       <c r="D69">
-        <v>-0.0090052810573246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007810689134507225</v>
+      </c>
+      <c r="E69">
+        <v>-0.02192983893342933</v>
+      </c>
+      <c r="F69">
+        <v>0.001482116078714247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03041552396207087</v>
+        <v>-0.06645823420436006</v>
       </c>
       <c r="C70">
-        <v>0.02669496788304381</v>
+        <v>-0.02776483941567879</v>
       </c>
       <c r="D70">
-        <v>-0.02909845135105863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02376875578116743</v>
+      </c>
+      <c r="E70">
+        <v>0.03648402434971078</v>
+      </c>
+      <c r="F70">
+        <v>-0.185235328370425</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09364320588460658</v>
+        <v>-0.1362767547363675</v>
       </c>
       <c r="C71">
-        <v>-0.005696302307527327</v>
+        <v>0.03638467894113279</v>
       </c>
       <c r="D71">
-        <v>-0.2448934469873094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2719797725826246</v>
+      </c>
+      <c r="E71">
+        <v>0.09733600414986206</v>
+      </c>
+      <c r="F71">
+        <v>0.01091055642045135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1350110749739274</v>
+        <v>-0.1424214301088165</v>
       </c>
       <c r="C72">
-        <v>-0.004044028196451738</v>
+        <v>0.02630699943425454</v>
       </c>
       <c r="D72">
-        <v>-0.02934371801496065</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001685808952815689</v>
+      </c>
+      <c r="E72">
+        <v>-0.03890692107786903</v>
+      </c>
+      <c r="F72">
+        <v>0.03263223871439758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2081616262658889</v>
+        <v>-0.2025522729177074</v>
       </c>
       <c r="C73">
-        <v>0.02103058908497128</v>
+        <v>0.01245863368066764</v>
       </c>
       <c r="D73">
-        <v>-0.031695425373959</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01664370368105359</v>
+      </c>
+      <c r="E73">
+        <v>-0.06396257913035844</v>
+      </c>
+      <c r="F73">
+        <v>0.03360732265973155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1031061971089485</v>
+        <v>-0.09454741713242064</v>
       </c>
       <c r="C74">
-        <v>0.004948868882744711</v>
+        <v>0.01322242804760732</v>
       </c>
       <c r="D74">
-        <v>-0.001747065803507112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01698188662458127</v>
+      </c>
+      <c r="E74">
+        <v>-0.04391611809521705</v>
+      </c>
+      <c r="F74">
+        <v>0.05745124471430998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1374022324798154</v>
+        <v>-0.1274826766676734</v>
       </c>
       <c r="C75">
-        <v>-0.005653289990158473</v>
+        <v>0.02783456590306919</v>
       </c>
       <c r="D75">
-        <v>-0.003724124335783136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0305495516546252</v>
+      </c>
+      <c r="E75">
+        <v>-0.0574378496318971</v>
+      </c>
+      <c r="F75">
+        <v>0.02134397850774827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08753857083454668</v>
+        <v>-0.08783730497526236</v>
       </c>
       <c r="C77">
-        <v>-0.001829318455120826</v>
+        <v>0.007819588249330827</v>
       </c>
       <c r="D77">
-        <v>0.07345747570703413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.112875877356162</v>
+      </c>
+      <c r="E77">
+        <v>-0.04043349387130294</v>
+      </c>
+      <c r="F77">
+        <v>0.03339970271320913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1405569627573932</v>
+        <v>-0.1013008248645682</v>
       </c>
       <c r="C78">
-        <v>-0.02442266814996484</v>
+        <v>0.03951760078655633</v>
       </c>
       <c r="D78">
-        <v>0.02551665129251459</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1152126389685389</v>
+      </c>
+      <c r="E78">
+        <v>-0.07422668242502369</v>
+      </c>
+      <c r="F78">
+        <v>0.04683652986718494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1567588895197324</v>
+        <v>-0.1636541235167003</v>
       </c>
       <c r="C79">
-        <v>0.002397526790462127</v>
+        <v>0.02243000558854373</v>
       </c>
       <c r="D79">
-        <v>-0.02029971063626904</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0143526843950074</v>
+      </c>
+      <c r="E79">
+        <v>-0.04492027084697376</v>
+      </c>
+      <c r="F79">
+        <v>0.01063011921335835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.09039549344633924</v>
+        <v>-0.08257696834340154</v>
       </c>
       <c r="C80">
-        <v>0.01239870281852308</v>
+        <v>-0.001159964790924459</v>
       </c>
       <c r="D80">
-        <v>0.02698837144091656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05667157062234092</v>
+      </c>
+      <c r="E80">
+        <v>-0.03628166729400709</v>
+      </c>
+      <c r="F80">
+        <v>-0.02314741522660094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1251966103953114</v>
+        <v>-0.1199947885420166</v>
       </c>
       <c r="C81">
-        <v>-0.01133487598577528</v>
+        <v>0.03175534672129383</v>
       </c>
       <c r="D81">
-        <v>0.008881053516816558</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01513908572692082</v>
+      </c>
+      <c r="E81">
+        <v>-0.05570313788434566</v>
+      </c>
+      <c r="F81">
+        <v>0.01814985919085367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1716314156287753</v>
+        <v>-0.165445837963828</v>
       </c>
       <c r="C82">
-        <v>0.005580002038028013</v>
+        <v>0.02429334891804855</v>
       </c>
       <c r="D82">
-        <v>7.920906719873679e-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003932272362780139</v>
+      </c>
+      <c r="E82">
+        <v>-0.02796685209966214</v>
+      </c>
+      <c r="F82">
+        <v>0.08155330423887146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0652537424068399</v>
+        <v>-0.05922371044733847</v>
       </c>
       <c r="C83">
-        <v>0.003873053876819149</v>
+        <v>0.002541781319641652</v>
       </c>
       <c r="D83">
-        <v>0.0335995951961935</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05153996748847377</v>
+      </c>
+      <c r="E83">
+        <v>-0.004635248959649325</v>
+      </c>
+      <c r="F83">
+        <v>-0.02976790343973805</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07480132881699059</v>
+        <v>-0.05842593583395279</v>
       </c>
       <c r="C84">
-        <v>-0.0033117717104182</v>
+        <v>0.01102046252381869</v>
       </c>
       <c r="D84">
-        <v>0.03720195342324616</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06381989401302851</v>
+      </c>
+      <c r="E84">
+        <v>-0.005813912537663664</v>
+      </c>
+      <c r="F84">
+        <v>0.005032521292573973</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1365638161423887</v>
+        <v>-0.1359952886992207</v>
       </c>
       <c r="C85">
-        <v>-0.00549006872110982</v>
+        <v>0.02777332004050773</v>
       </c>
       <c r="D85">
-        <v>-0.009068453289020393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009941859416513842</v>
+      </c>
+      <c r="E85">
+        <v>-0.03649069385948166</v>
+      </c>
+      <c r="F85">
+        <v>0.04653238957465226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07447383606303269</v>
+        <v>-0.0953659804581682</v>
       </c>
       <c r="C86">
-        <v>0.009331884113031149</v>
+        <v>-0.005261426145637118</v>
       </c>
       <c r="D86">
-        <v>-0.09329273457636292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04063781424101556</v>
+      </c>
+      <c r="E86">
+        <v>-0.2170681615771602</v>
+      </c>
+      <c r="F86">
+        <v>-0.9081807175202991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.134409174883843</v>
+        <v>-0.0962247113471624</v>
       </c>
       <c r="C87">
-        <v>-0.005661286854788617</v>
+        <v>0.01946497813096682</v>
       </c>
       <c r="D87">
-        <v>0.05520284266563488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09492181936250157</v>
+      </c>
+      <c r="E87">
+        <v>0.05287277863859016</v>
+      </c>
+      <c r="F87">
+        <v>0.05002489480053264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05708230595419288</v>
+        <v>-0.06049697213726593</v>
       </c>
       <c r="C88">
-        <v>0.002330420973913263</v>
+        <v>0.002037241206209089</v>
       </c>
       <c r="D88">
-        <v>0.01327850647012936</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04945729476806802</v>
+      </c>
+      <c r="E88">
+        <v>-0.0238423188587871</v>
+      </c>
+      <c r="F88">
+        <v>0.01317870443871326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.105023368162848</v>
+        <v>-0.1327044276990342</v>
       </c>
       <c r="C89">
-        <v>0.01892136899414806</v>
+        <v>0.01329828506051325</v>
       </c>
       <c r="D89">
-        <v>-0.2594619402806518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2469476004261462</v>
+      </c>
+      <c r="E89">
+        <v>0.08997959759652437</v>
+      </c>
+      <c r="F89">
+        <v>-0.008267821801420275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1015138262491472</v>
+        <v>-0.1514660329957906</v>
       </c>
       <c r="C90">
-        <v>-0.002561176015093692</v>
+        <v>0.03304675024579307</v>
       </c>
       <c r="D90">
-        <v>-0.2451060000307966</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2704082466522067</v>
+      </c>
+      <c r="E90">
+        <v>0.1136076475203252</v>
+      </c>
+      <c r="F90">
+        <v>-0.005456205468393241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1124235960613215</v>
+        <v>-0.1204574230515838</v>
       </c>
       <c r="C91">
-        <v>0.001817462877589544</v>
+        <v>0.01919938561684676</v>
       </c>
       <c r="D91">
-        <v>-0.03428358658214112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01444322242409814</v>
+      </c>
+      <c r="E91">
+        <v>-0.05558095604820334</v>
+      </c>
+      <c r="F91">
+        <v>-0.001596429604156841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1044040400450432</v>
+        <v>-0.1482441474647966</v>
       </c>
       <c r="C92">
-        <v>0.01345473036209072</v>
+        <v>0.02418425272720688</v>
       </c>
       <c r="D92">
-        <v>-0.258121152612539</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914900148628989</v>
+      </c>
+      <c r="E92">
+        <v>0.1024290429003969</v>
+      </c>
+      <c r="F92">
+        <v>-0.01209987605620975</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1086092629842862</v>
+        <v>-0.1521632332731737</v>
       </c>
       <c r="C93">
-        <v>0.003886542934749452</v>
+        <v>0.02841542947602215</v>
       </c>
       <c r="D93">
-        <v>-0.2549955760202259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2678192807602905</v>
+      </c>
+      <c r="E93">
+        <v>0.07866707799482102</v>
+      </c>
+      <c r="F93">
+        <v>0.004059426543273988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1455842143784639</v>
+        <v>-0.1295366325020921</v>
       </c>
       <c r="C94">
-        <v>-0.0009392966252349863</v>
+        <v>0.02457209058573801</v>
       </c>
       <c r="D94">
-        <v>0.01149532799590128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04284623500905679</v>
+      </c>
+      <c r="E94">
+        <v>-0.05694486350693011</v>
+      </c>
+      <c r="F94">
+        <v>0.03734223239965209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1245982845434082</v>
+        <v>-0.1271502137554897</v>
       </c>
       <c r="C95">
-        <v>0.008556003265311356</v>
+        <v>0.003319529429020554</v>
       </c>
       <c r="D95">
-        <v>0.04684626671087525</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09372784883347662</v>
+      </c>
+      <c r="E95">
+        <v>-0.04682751105596191</v>
+      </c>
+      <c r="F95">
+        <v>-0.006347414425579412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05396175679634575</v>
+        <v>-0.1066277162799054</v>
       </c>
       <c r="C96">
-        <v>0.9933024134493159</v>
+        <v>-0.9873726921294067</v>
       </c>
       <c r="D96">
-        <v>-0.02246736659881265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0500804086925197</v>
+      </c>
+      <c r="E96">
+        <v>-0.05486752404805596</v>
+      </c>
+      <c r="F96">
+        <v>0.04153076274007919</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1737492270851651</v>
+        <v>-0.1930340850204549</v>
       </c>
       <c r="C97">
-        <v>0.03495149100026349</v>
+        <v>-0.007458536694091402</v>
       </c>
       <c r="D97">
-        <v>-0.0563860032773762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01792509396655185</v>
+      </c>
+      <c r="E97">
+        <v>-0.02018820465182445</v>
+      </c>
+      <c r="F97">
+        <v>-0.0792952054942405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2015536038680056</v>
+        <v>-0.2055608580401867</v>
       </c>
       <c r="C98">
-        <v>0.02504872942802068</v>
+        <v>0.00706554000300151</v>
       </c>
       <c r="D98">
-        <v>0.001281840747245613</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0127542272607982</v>
+      </c>
+      <c r="E98">
+        <v>0.0826371572150893</v>
+      </c>
+      <c r="F98">
+        <v>-0.09501569266543194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05679644551867306</v>
+        <v>-0.05511299639185999</v>
       </c>
       <c r="C99">
-        <v>0.01133771022813035</v>
+        <v>-0.004711153109303627</v>
       </c>
       <c r="D99">
-        <v>0.008098926484021324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03960464371156124</v>
+      </c>
+      <c r="E99">
+        <v>-0.0226907699558998</v>
+      </c>
+      <c r="F99">
+        <v>0.001071451543492495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1656052314888921</v>
+        <v>-0.1244563788039451</v>
       </c>
       <c r="C100">
-        <v>0.05765051257809784</v>
+        <v>-0.05513410228878689</v>
       </c>
       <c r="D100">
-        <v>0.6145591009467387</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3455202973789942</v>
+      </c>
+      <c r="E100">
+        <v>0.8882611025078635</v>
+      </c>
+      <c r="F100">
+        <v>-0.1461355483822145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02520064296682327</v>
+        <v>-0.02869208503556494</v>
       </c>
       <c r="C101">
-        <v>-0.006459941125690834</v>
+        <v>0.008853290500091832</v>
       </c>
       <c r="D101">
-        <v>0.009749927571689569</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03051712245911295</v>
+      </c>
+      <c r="E101">
+        <v>-0.01073554149844203</v>
+      </c>
+      <c r="F101">
+        <v>-0.01452475637807161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
